--- a/src/test/resources/io.dingodb.test/testdata/txnlsmmysqlcases/prepareStatement/mysql_ps_blob_cases_txnlsm.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/txnlsmmysqlcases/prepareStatement/mysql_ps_blob_cases_txnlsm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>TestID</t>
   </si>
@@ -263,10 +263,6 @@
   </si>
   <si>
     <t>select id,info from $schema58 where id=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $schema58 where id=?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -762,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>
